--- a/archivos/puerto_gaitan/puerto_gaitan.xlsx
+++ b/archivos/puerto_gaitan/puerto_gaitan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>PARAMETROS DE BUSQUEDA</t>
   </si>
@@ -29,13 +29,13 @@
     <t>FECHA_INICIAL</t>
   </si>
   <si>
-    <t>2021-06-04</t>
+    <t>2021-06-18</t>
   </si>
   <si>
     <t>FECHA_FINAL</t>
   </si>
   <si>
-    <t>2021-06-08</t>
+    <t>2021-06-19</t>
   </si>
   <si>
     <t>TIPO CONSULTA</t>
@@ -143,19 +143,16 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>2021-06-07 04:39:19</t>
-  </si>
-  <si>
-    <t>MLr_5</t>
+    <t>2021-06-19 12:19:37</t>
+  </si>
+  <si>
+    <t>MLr_3</t>
   </si>
   <si>
     <t>Puerto Gaitán - Meta, Colombia</t>
   </si>
   <si>
     <t>manual</t>
-  </si>
-  <si>
-    <t>2021-06-07 05:18:51</t>
   </si>
 </sst>
 </file>
@@ -547,10 +544,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -614,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -792,86 +789,42 @@
         <v>42</v>
       </c>
       <c r="B15" s="5">
-        <v>3.947</v>
+        <v>4.035</v>
       </c>
       <c r="C15" s="5">
-        <v>-71.552</v>
+        <v>-71.606</v>
       </c>
       <c r="D15" s="5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E15" s="5">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="5">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="H15" s="5">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="I15" s="5">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="J15" s="5">
-        <v>2.192</v>
+        <v>3.96</v>
       </c>
       <c r="K15" s="5">
-        <v>2.192</v>
+        <v>3.96</v>
       </c>
       <c r="L15" s="5">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="5">
-        <v>3.888</v>
-      </c>
-      <c r="C16" s="5">
-        <v>-71.641</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2.2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="5">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="I16" s="5">
-        <v>220</v>
-      </c>
-      <c r="J16" s="5">
-        <v>6.364</v>
-      </c>
-      <c r="K16" s="5">
-        <v>6.364</v>
-      </c>
-      <c r="L16" s="5">
-        <v>7</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="5" t="s">
         <v>45</v>
       </c>
     </row>

--- a/archivos/puerto_gaitan/puerto_gaitan.xlsx
+++ b/archivos/puerto_gaitan/puerto_gaitan.xlsx
@@ -35,7 +35,7 @@
     <t>FECHA_FINAL</t>
   </si>
   <si>
-    <t>2021-06-19</t>
+    <t>2021-06-21</t>
   </si>
   <si>
     <t>TIPO CONSULTA</t>

--- a/archivos/puerto_gaitan/puerto_gaitan.xlsx
+++ b/archivos/puerto_gaitan/puerto_gaitan.xlsx
@@ -29,13 +29,13 @@
     <t>FECHA_INICIAL</t>
   </si>
   <si>
-    <t>2021-06-18</t>
+    <t>2021-07-09</t>
   </si>
   <si>
     <t>FECHA_FINAL</t>
   </si>
   <si>
-    <t>2021-06-21</t>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>TIPO CONSULTA</t>
@@ -143,10 +143,10 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>2021-06-19 12:19:37</t>
-  </si>
-  <si>
-    <t>MLr_3</t>
+    <t>2021-07-09 01:05:41</t>
+  </si>
+  <si>
+    <t>MLr_5</t>
   </si>
   <si>
     <t>Puerto Gaitán - Meta, Colombia</t>
@@ -789,37 +789,37 @@
         <v>42</v>
       </c>
       <c r="B15" s="5">
-        <v>4.035</v>
+        <v>4.001</v>
       </c>
       <c r="C15" s="5">
-        <v>-71.606</v>
+        <v>-71.755</v>
       </c>
       <c r="D15" s="5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H15" s="5">
         <v>1.2</v>
       </c>
       <c r="I15" s="5">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="J15" s="5">
-        <v>3.96</v>
+        <v>5.303</v>
       </c>
       <c r="K15" s="5">
-        <v>3.96</v>
+        <v>5.303</v>
       </c>
       <c r="L15" s="5">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>44</v>
